--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-265286.7740250319</v>
+        <v>-268852.2758985804</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516703</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11925850.90489487</v>
+        <v>11922311.02855235</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>172.6838332612773</v>
+        <v>69.67470002472835</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -750,10 +750,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09591959793779</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -798,10 +798,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>133.4004008056329</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>11.94771891139871</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>149.6772607342466</v>
+        <v>160.4686873113756</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -993,7 +993,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>22.78476950182306</v>
+        <v>173.9180602144476</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>56.66154922347774</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>161.679678913</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>105.0006923697201</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>111.2555373903794</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.52529077486058</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>100.1903889480794</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>246.3892909176519</v>
+        <v>99.28130333122718</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362804</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>82.9984695717785</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465761</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442488</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681701</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338906</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456099</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901691</v>
+        <v>29.15829740541344</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>35.6063321685366</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1625,7 +1625,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362803</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214456</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>178.1576867515498</v>
+        <v>290.9054579080343</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>69.25629186568311</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993876</v>
+        <v>92.36664214762499</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135892</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386987</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665145</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799147</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697378</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412927</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.48225061359</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.59377642287555</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.4884501927757</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059328</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541632</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879326</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658112</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006895</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880405</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908646</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092619</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038053</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357257</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459647</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253674</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708674</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369191</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.001891997864</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249339</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117998</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792625</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593886</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
@@ -2564,7 +2564,7 @@
         <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414342</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404351</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
         <v>273.297770207079</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007186</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035427</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.085507492194</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507311</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484038</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723251</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380455</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497646</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2767,7 +2767,7 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
         <v>169.3282772530676</v>
@@ -2779,7 +2779,7 @@
         <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.8896660972067</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="29">
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
         <v>315.0398534825604</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414342</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404351</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007186</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035427</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.085507492194</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507311</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484038</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723251</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380455</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497646</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3004,19 +3004,19 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.8896660972067</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542117</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820275</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954277</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345497</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852508</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568057</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.505762629103</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838861</v>
+        <v>24.17382596574993</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828871</v>
+        <v>52.06849973565005</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161063</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696762</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034456</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813242</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162025</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885337</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431706</v>
+        <v>70.57601873167837</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459947</v>
+        <v>55.72314698196078</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643919</v>
+        <v>41.29686219380051</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193183</v>
+        <v>41.22330424667962</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908557</v>
+        <v>42.97275566644689</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147771</v>
+        <v>53.79159358883902</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804975</v>
+        <v>41.14384575541106</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922168</v>
+        <v>18.98356133658299</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736776</v>
+        <v>9.882059701038912</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920492</v>
+        <v>88.00800320656623</v>
       </c>
       <c r="T34" t="n">
-        <v>127.025404013377</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404469</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273128</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480629</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947755</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714519</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3266,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357248</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386987</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665144</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799147</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697378</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412926</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>190.48225061359</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875578</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277567</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059325</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
         <v>208.3257718879325</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658112</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006895</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880403</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908643</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092616</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380527</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357254</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596467</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253672</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708645</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369188</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T40" t="n">
-        <v>103.001891997864</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117998</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792625</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593883</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="41">
@@ -3740,16 +3740,16 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
         <v>278.6711586412925</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
         <v>236.9290753658111</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357248</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253666</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697377</v>
@@ -3995,7 +3995,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
         <v>208.3257718879325</v>
@@ -4043,7 +4043,7 @@
         <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D46" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357248</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708589</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369182</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
         <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1033.670054195538</v>
+        <v>918.2199886388678</v>
       </c>
       <c r="C2" t="n">
-        <v>1033.670054195538</v>
+        <v>525.0444871417983</v>
       </c>
       <c r="D2" t="n">
-        <v>1033.670054195538</v>
+        <v>525.0444871417983</v>
       </c>
       <c r="E2" t="n">
-        <v>631.0865293120823</v>
+        <v>525.0444871417983</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067517</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475486</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475486</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475486</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310448</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M2" t="n">
-        <v>1040.448080049574</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N2" t="n">
-        <v>1568.259363687036</v>
+        <v>1726.974845685401</v>
       </c>
       <c r="O2" t="n">
-        <v>2008.298964579364</v>
+        <v>1726.974845685401</v>
       </c>
       <c r="P2" t="n">
-        <v>2008.298964579364</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737743</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023265</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964315</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523732</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U2" t="n">
-        <v>1746.775898523732</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V2" t="n">
-        <v>1404.66908922725</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="W2" t="n">
-        <v>1033.670054195538</v>
+        <v>1704.16330278521</v>
       </c>
       <c r="X2" t="n">
-        <v>1033.670054195538</v>
+        <v>1314.710697718267</v>
       </c>
       <c r="Y2" t="n">
-        <v>1033.670054195538</v>
+        <v>918.2199886388678</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021379</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622301</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837104</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291945981</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777299</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>92.88291338284327</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284327</v>
+        <v>90.89050074442686</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475486</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475486</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569813</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552945</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1385.059676365386</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N3" t="n">
-        <v>1923.318461375477</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.417878182852</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182852</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737743</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635807</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535676</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734584</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413226</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784293</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.23104691758</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675919</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523430992</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>524.5541991208424</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="C4" t="n">
-        <v>524.5541991208424</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="D4" t="n">
-        <v>524.5541991208424</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="E4" t="n">
-        <v>524.5541991208424</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="F4" t="n">
-        <v>367.2282643338153</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="G4" t="n">
-        <v>198.9742104332609</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475486</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475486</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475486</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046967</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784965</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167605</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479696</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896776</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662562</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363072</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363072</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363072</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363072</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363072</v>
+        <v>824.8933162213535</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363072</v>
+        <v>558.9139710421778</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363072</v>
+        <v>275.5835689733553</v>
       </c>
       <c r="X4" t="n">
-        <v>932.8742789955004</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="Y4" t="n">
-        <v>709.7622178121437</v>
+        <v>41.50324675633845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>982.4237934035641</v>
+        <v>1068.310850208849</v>
       </c>
       <c r="C5" t="n">
-        <v>589.2482919064946</v>
+        <v>675.1353487117794</v>
       </c>
       <c r="D5" t="n">
-        <v>203.8071631231624</v>
+        <v>675.1353487117794</v>
       </c>
       <c r="E5" t="n">
-        <v>203.8071631231624</v>
+        <v>675.1353487117794</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634763</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475486</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475486</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475486</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310448</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L5" t="n">
-        <v>547.1277883310448</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354821</v>
+        <v>699.7556982748548</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572944</v>
+        <v>1102.089684652124</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465273</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596794</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737743</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737743</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737743</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="T5" t="n">
-        <v>1951.282367297159</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="U5" t="n">
-        <v>1695.529637731758</v>
+        <v>1781.416694537043</v>
       </c>
       <c r="V5" t="n">
-        <v>1353.422828435277</v>
+        <v>1439.309885240561</v>
       </c>
       <c r="W5" t="n">
-        <v>982.4237934035641</v>
+        <v>1068.310850208849</v>
       </c>
       <c r="X5" t="n">
-        <v>982.4237934035641</v>
+        <v>1068.310850208849</v>
       </c>
       <c r="Y5" t="n">
-        <v>982.4237934035641</v>
+        <v>1068.310850208849</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347858</v>
+        <v>791.481975908281</v>
       </c>
       <c r="C6" t="n">
-        <v>692.207412094878</v>
+        <v>640.8277454683732</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163583</v>
+        <v>510.7387780898536</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>374.2922872007413</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822423</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284327</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475486</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144822</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.9158735750219</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585113</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N6" t="n">
-        <v>1534.796509466455</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466455</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182852</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737743</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635807</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535676</v>
+        <v>1940.231660716791</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734584</v>
+        <v>1940.231660716791</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1764.55685241937</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1542.016850790437</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1311.899604923723</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1122.592527273735</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757471</v>
+        <v>943.2783103492424</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>456.6878063607574</v>
+        <v>655.7364729476396</v>
       </c>
       <c r="C7" t="n">
-        <v>456.6878063607574</v>
+        <v>655.7364729476396</v>
       </c>
       <c r="D7" t="n">
-        <v>456.6878063607574</v>
+        <v>655.7364729476396</v>
       </c>
       <c r="E7" t="n">
-        <v>399.4539182562344</v>
+        <v>500.1776608068421</v>
       </c>
       <c r="F7" t="n">
-        <v>242.1279834692074</v>
+        <v>342.851726019815</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865291</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865291</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865291</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475486</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046967</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784965</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167605</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479696</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896776</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662562</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363072</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363072</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188565</v>
+        <v>655.7364729476396</v>
       </c>
       <c r="T7" t="n">
-        <v>742.1265981188565</v>
+        <v>655.7364729476396</v>
       </c>
       <c r="U7" t="n">
-        <v>456.6878063607574</v>
+        <v>655.7364729476396</v>
       </c>
       <c r="V7" t="n">
-        <v>456.6878063607574</v>
+        <v>655.7364729476396</v>
       </c>
       <c r="W7" t="n">
-        <v>456.6878063607574</v>
+        <v>655.7364729476396</v>
       </c>
       <c r="X7" t="n">
-        <v>456.6878063607574</v>
+        <v>655.7364729476396</v>
       </c>
       <c r="Y7" t="n">
-        <v>456.6878063607574</v>
+        <v>655.7364729476396</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>955.7098427788578</v>
+        <v>1530.670136571906</v>
       </c>
       <c r="C8" t="n">
-        <v>955.7098427788578</v>
+        <v>1530.670136571906</v>
       </c>
       <c r="D8" t="n">
-        <v>570.2687139955256</v>
+        <v>1530.670136571906</v>
       </c>
       <c r="E8" t="n">
-        <v>570.2687139955256</v>
+        <v>1128.086611688451</v>
       </c>
       <c r="F8" t="n">
-        <v>153.3742755255033</v>
+        <v>711.1921732184286</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>298.0294177064317</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>144.6268723438257</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636597</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>2142.147902636597</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>2142.147902636597</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>2142.147902636597</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X8" t="n">
-        <v>1752.695297569654</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y8" t="n">
-        <v>1356.204588490255</v>
+        <v>1931.164882283303</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1746.012325817167</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2151.633694533565</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>854.2900019614187</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>684.084884027408</v>
+        <v>847.557579564228</v>
       </c>
       <c r="D10" t="n">
-        <v>528.4517709299226</v>
+        <v>691.9244664667428</v>
       </c>
       <c r="E10" t="n">
-        <v>372.8929587891251</v>
+        <v>536.3656543259453</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5670240020981</v>
+        <v>379.0397195389182</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1618.175009429186</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="C11" t="n">
-        <v>1296.79578307831</v>
+        <v>1467.029473271993</v>
       </c>
       <c r="D11" t="n">
-        <v>983.1509294411717</v>
+        <v>1153.384619634855</v>
       </c>
       <c r="E11" t="n">
-        <v>652.3636797039098</v>
+        <v>822.5973698975927</v>
       </c>
       <c r="F11" t="n">
-        <v>403.4856080699187</v>
+        <v>722.3132251185754</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411573</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411573</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5072,19 +5072,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2859.534777998631</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2589.224243848344</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2589.224243848344</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="X11" t="n">
-        <v>2271.567913927594</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>1946.873479994389</v>
+        <v>1788.408699622868</v>
       </c>
     </row>
     <row r="12">
@@ -5127,16 +5127,16 @@
         <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>556.686367154245</v>
+        <v>256.985749246293</v>
       </c>
       <c r="C13" t="n">
-        <v>556.686367154245</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029536</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083499</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675167</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G13" t="n">
-        <v>207.099553813156</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M13" t="n">
         <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138159</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126308</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1467.279816152474</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1467.279816152474</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1303.357039466902</v>
       </c>
       <c r="U13" t="n">
-        <v>1149.685342236449</v>
+        <v>1089.714522854996</v>
       </c>
       <c r="V13" t="n">
-        <v>955.5022722034673</v>
+        <v>895.5314528220147</v>
       </c>
       <c r="W13" t="n">
-        <v>743.9681452808387</v>
+        <v>683.9973258993863</v>
       </c>
       <c r="X13" t="n">
-        <v>708.0021531914078</v>
+        <v>521.7132788285633</v>
       </c>
       <c r="Y13" t="n">
-        <v>556.686367154245</v>
+        <v>370.3974927914005</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2033.222718167679</v>
+        <v>1966.681876406338</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816804</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185754</v>
+        <v>655.7723833572342</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5312,16 +5312,16 @@
         <v>2859.534777998631</v>
       </c>
       <c r="V14" t="n">
-        <v>2859.534777998631</v>
+        <v>2589.224243848344</v>
       </c>
       <c r="W14" t="n">
-        <v>2679.577518653632</v>
+        <v>2295.380346971541</v>
       </c>
       <c r="X14" t="n">
-        <v>2361.921188732882</v>
+        <v>2295.380346971541</v>
       </c>
       <c r="Y14" t="n">
-        <v>2361.921188732882</v>
+        <v>2295.380346971541</v>
       </c>
     </row>
     <row r="15">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>329.8944680840571</v>
+        <v>155.4187662370701</v>
       </c>
       <c r="C16" t="n">
-        <v>231.4856252962401</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>147.6487873449487</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>147.6487873449487</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
         <v>62.11912770411553</v>
@@ -5437,16 +5437,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1496.732641814508</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1332.809865128936</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>1119.16734851703</v>
+        <v>988.1475398457735</v>
       </c>
       <c r="V16" t="n">
-        <v>924.9842784840484</v>
+        <v>793.9644698127917</v>
       </c>
       <c r="W16" t="n">
-        <v>713.4501515614198</v>
+        <v>582.4303428901632</v>
       </c>
       <c r="X16" t="n">
-        <v>551.1661044905968</v>
+        <v>420.1462958193401</v>
       </c>
       <c r="Y16" t="n">
-        <v>399.8503184534339</v>
+        <v>268.8305097821775</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
         <v>68.77950792924223</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L18" t="n">
-        <v>62.11912770411553</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M18" t="n">
-        <v>689.8907773307967</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5683,13 +5683,13 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5789,7 +5789,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5838,16 +5838,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5926,10 +5926,10 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099319</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803434</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924236</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129442</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.751256640406</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358936</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933307</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6060,22 +6060,22 @@
         <v>199.803798091603</v>
       </c>
       <c r="H24" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860695</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843829</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843829</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885607</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369582</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218812</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.565146063492</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588733</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.3386307407271</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462937</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411556</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476283</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341241</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191883</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161922</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194248</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330107</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.898585698402</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974537</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6212,52 +6212,52 @@
         <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678972</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859518</v>
+        <v>247.9841471388005</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958372</v>
+        <v>606.9665031662623</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614366</v>
+        <v>1100.286794884791</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658947</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025982</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647884</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508979</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379501</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377515</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>872.7308420875813</v>
+        <v>872.7308420875812</v>
       </c>
       <c r="C27" t="n">
-        <v>722.0766116476735</v>
+        <v>722.0766116476734</v>
       </c>
       <c r="D27" t="n">
-        <v>591.9876442691539</v>
+        <v>591.9876442691537</v>
       </c>
       <c r="E27" t="n">
         <v>455.5411533800415</v>
@@ -6294,46 +6294,46 @@
         <v>331.1093472631733</v>
       </c>
       <c r="G27" t="n">
-        <v>211.0495293350378</v>
+        <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672777</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295043</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278177</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278177</v>
+        <v>701.1365085742315</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1356.914479784791</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1873.434762375772</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368296</v>
+        <v>2279.056131092169</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
       </c>
       <c r="R27" t="n">
-        <v>2367.783350821251</v>
+        <v>2367.78335082125</v>
       </c>
       <c r="S27" t="n">
-        <v>2232.85267372112</v>
+        <v>2232.852673721119</v>
       </c>
       <c r="T27" t="n">
-        <v>2055.868861920028</v>
+        <v>2055.868861920027</v>
       </c>
       <c r="U27" t="n">
         <v>1845.80571859867</v>
@@ -6342,13 +6342,13 @@
         <v>1623.265716969737</v>
       </c>
       <c r="W27" t="n">
-        <v>1393.148471103024</v>
+        <v>1393.148471103023</v>
       </c>
       <c r="X27" t="n">
         <v>1203.841393453035</v>
       </c>
       <c r="Y27" t="n">
-        <v>1024.527176528543</v>
+        <v>1024.527176528542</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985355</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.373229741416</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
         <v>848.0508225904118</v>
@@ -6400,34 +6400,34 @@
         <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648018</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286453</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988167</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026485</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678972</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
         <v>73.36485894755026</v>
@@ -6464,22 +6464,22 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.099711342987</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932279</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>3049.425872824608</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.61336495613</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>186.0091217785661</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>813.7807714052475</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
-        <v>1469.558742615807</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985354</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517129</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878067</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286453</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988167</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026484</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222128</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654423</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800456</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463652</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057078</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230757</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189318</v>
+        <v>91.97314162835514</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076151</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770519</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.499968895581</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667232</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031765</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2896.171031651164</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897127</v>
+        <v>3149.851074113023</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038075</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038075</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908491</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397272</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761237</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.14596739412</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291773</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154194</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.43530700416</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807924</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408846</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623649</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732527</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563845</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288499</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076151</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604889</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210289</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210289</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354127</v>
+        <v>1980.269301861584</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.896622945109</v>
+        <v>1980.269301861584</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216397</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.03536301433</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746246</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965107</v>
+        <v>365.6713676929722</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918648</v>
+        <v>309.3853606404866</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237444</v>
+        <v>267.6713584245265</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123118</v>
+        <v>226.0316571652542</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546496</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834599</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431877</v>
+        <v>86.73045008374207</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076151</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703945</v>
+        <v>143.5810516071565</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074069</v>
+        <v>337.0682132920812</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812067</v>
+        <v>501.195853165881</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465411</v>
+        <v>687.487431504145</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.310069904821</v>
+        <v>870.6770655353541</v>
       </c>
       <c r="O34" t="n">
-        <v>1344.2879296736</v>
+        <v>1033.381832577062</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376588</v>
+        <v>1264.910118928623</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746639</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.62318930858</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420495</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518094</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689359</v>
+        <v>987.7859626250195</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395485</v>
+        <v>835.7257283273689</v>
       </c>
       <c r="W34" t="n">
-        <v>733.392329300091</v>
+        <v>666.3144371400716</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012439</v>
+        <v>546.1532258045798</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584471</v>
+        <v>436.9602755027483</v>
       </c>
     </row>
     <row r="35">
@@ -6914,73 +6914,73 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803433</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924238</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358936</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
-        <v>2572.923332933307</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7008,22 +7008,22 @@
         <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860695</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843829</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843829</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885601</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369577</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218808</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072693</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462928</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>270.9691711012539</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750537</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133177</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445269</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862349</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162813</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532864</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161911</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197453</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443167</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860695</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843829</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
         <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1629.569288533879</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O39" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885605</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C40" t="n">
-        <v>197.403597936958</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218811</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634919</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588732</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072704</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462934</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
         <v>143.9541688140574</v>
@@ -7345,37 +7345,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
         <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.06281534124</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918825</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161919</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194244</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330104</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984018</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974534</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358936</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
-        <v>2572.923332933307</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7482,22 +7482,22 @@
         <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>96.81867335321579</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L42" t="n">
-        <v>580.3847592515292</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.156408878211</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N42" t="n">
         <v>1863.93438008877</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885601</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369577</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218808</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072693</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462928</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411556</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222427</v>
+        <v>270.969171101253</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960425</v>
+        <v>435.0968109750528</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567349</v>
+        <v>621.3883893133168</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879441</v>
+        <v>804.5780233445259</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296521</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106231</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476282</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918818</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161911</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.463261197453</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7622,67 +7622,67 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924233</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404058</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7725,19 +7725,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860695</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843829</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F46" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G46" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462926</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031230075</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222426</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960424</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343064</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879441</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296521</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106231</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476282</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161911</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984012</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974529</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>471.9127060583733</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>312.6643601945323</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8064,16 +8064,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837476</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886023</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>109.9596970781564</v>
+        <v>611.4781433431195</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>460.0844827139994</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8216,16 +8216,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>277.7768138244315</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>555.5164573754294</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8301,16 +8301,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837476</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>122.3638814211783</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431195</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>460.0844827139994</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>215.9767088941462</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>477.1304116531281</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
@@ -8538,10 +8538,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>422.8212561536984</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>307.1647294625964</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8775,10 +8775,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N12" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9240,19 +9240,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>263.0728605086217</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>624.8237719316268</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9486,19 +9486,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.3871220493117</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>333.259565311842</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>92.3871220493117</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118422</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>204.7702368236079</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333321</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>203.8424305246108</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591388</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10434,19 +10434,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.3871220493117</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118418</v>
+        <v>457.6168628059752</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.3871220493117</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>333.259565311842</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10911,13 +10911,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>108.8653421701412</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P39" t="n">
-        <v>87.0833648193145</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11139,7 +11139,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>124.6469814435355</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11154,10 +11154,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.0833648193145</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591388</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>220.8844470939632</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888869</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>95.25789077293823</v>
+        <v>242.3658783593629</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372792</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993877</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>22.42536967360344</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>125.0548744315782</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>118.0530455351138</v>
+        <v>5.305274378629178</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.02133424397324</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>5.058112212313745</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
-        <v>95.493200966817</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456097</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901689</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1039011.971093695</v>
+        <v>1037207.328252414</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1039011.971093695</v>
+        <v>1037207.328252414</v>
       </c>
     </row>
     <row r="4">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>288531.4849493708</v>
+        <v>288531.484949371</v>
       </c>
       <c r="C2" t="n">
-        <v>288531.4849493708</v>
+        <v>288531.484949371</v>
       </c>
       <c r="D2" t="n">
         <v>288531.4849493708</v>
       </c>
       <c r="E2" t="n">
-        <v>254974.4374790409</v>
+        <v>254974.437479041</v>
       </c>
       <c r="F2" t="n">
         <v>254974.4374790409</v>
       </c>
       <c r="G2" t="n">
+        <v>288531.4849493708</v>
+      </c>
+      <c r="H2" t="n">
+        <v>288531.4849493708</v>
+      </c>
+      <c r="I2" t="n">
+        <v>288531.4849493708</v>
+      </c>
+      <c r="J2" t="n">
+        <v>288531.4849493702</v>
+      </c>
+      <c r="K2" t="n">
+        <v>288531.4849493703</v>
+      </c>
+      <c r="L2" t="n">
+        <v>288531.4849493711</v>
+      </c>
+      <c r="M2" t="n">
+        <v>288531.4849493708</v>
+      </c>
+      <c r="N2" t="n">
         <v>288531.4849493707</v>
       </c>
-      <c r="H2" t="n">
-        <v>288531.4849493707</v>
-      </c>
-      <c r="I2" t="n">
-        <v>288531.4849493707</v>
-      </c>
-      <c r="J2" t="n">
-        <v>288531.4849493703</v>
-      </c>
-      <c r="K2" t="n">
-        <v>288531.4849493702</v>
-      </c>
-      <c r="L2" t="n">
-        <v>288531.4849493706</v>
-      </c>
-      <c r="M2" t="n">
-        <v>288531.4849493706</v>
-      </c>
-      <c r="N2" t="n">
-        <v>288531.4849493706</v>
-      </c>
       <c r="O2" t="n">
-        <v>288531.4849493706</v>
+        <v>288531.4849493708</v>
       </c>
       <c r="P2" t="n">
-        <v>288531.4849493707</v>
+        <v>288531.4849493708</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918554</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062236</v>
+        <v>22558.42953401347</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.32553668196</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.355092447027051e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945022</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728582</v>
+        <v>62456.24177539671</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962318</v>
+        <v>43252.52447081122</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277131</v>
+        <v>27767.69404277122</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138796</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138796</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
@@ -26436,25 +26436,25 @@
         <v>199269.1699682603</v>
       </c>
       <c r="I4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="J4" t="n">
         <v>200019.6624326434</v>
       </c>
       <c r="K4" t="n">
-        <v>200019.6624326433</v>
+        <v>200019.6624326434</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.0885321599</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="N4" t="n">
         <v>199269.1699682602</v>
       </c>
       <c r="O4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="P4" t="n">
         <v>199269.1699682602</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001369</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001369</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,28 +26488,28 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391953</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173844</v>
+        <v>60823.19813315422</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-192782.0770963778</v>
+        <v>-187829.0836683229</v>
       </c>
       <c r="C6" t="n">
-        <v>-10577.12880452241</v>
+        <v>-13970.42663426777</v>
       </c>
       <c r="D6" t="n">
-        <v>-18897.96919009215</v>
+        <v>-26634.25841348333</v>
       </c>
       <c r="E6" t="n">
-        <v>-61844.3971715222</v>
+        <v>-62054.1287182117</v>
       </c>
       <c r="F6" t="n">
-        <v>50278.16430252232</v>
+        <v>50068.43275583276</v>
       </c>
       <c r="G6" t="n">
-        <v>-16332.77987109122</v>
+        <v>-16332.77987109113</v>
       </c>
       <c r="H6" t="n">
-        <v>31092.54566559067</v>
+        <v>31092.54566559082</v>
       </c>
       <c r="I6" t="n">
-        <v>31092.54566559069</v>
+        <v>31092.54566559088</v>
       </c>
       <c r="J6" t="n">
-        <v>-181949.3719316949</v>
+        <v>-175433.0867771221</v>
       </c>
       <c r="K6" t="n">
-        <v>24852.77726280752</v>
+        <v>24852.77726280735</v>
       </c>
       <c r="L6" t="n">
-        <v>-30329.81167181364</v>
+        <v>-34378.64888228511</v>
       </c>
       <c r="M6" t="n">
-        <v>-11108.28379403246</v>
+        <v>-12159.97880522031</v>
       </c>
       <c r="N6" t="n">
-        <v>31092.54566559095</v>
+        <v>31092.54566559091</v>
       </c>
       <c r="O6" t="n">
-        <v>3324.851622819326</v>
+        <v>3324.851622819609</v>
       </c>
       <c r="P6" t="n">
-        <v>31092.54566559084</v>
+        <v>31092.54566559089</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26704,25 +26704,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
+        <v>130.3599693155844</v>
+      </c>
+      <c r="N2" t="n">
         <v>130.3599693155843</v>
       </c>
-      <c r="N2" t="n">
-        <v>130.3599693155842</v>
-      </c>
       <c r="O2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
         <v>130.3599693155843</v>
@@ -26756,28 +26756,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.914595934540829e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.914595934540829e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.914595934540829e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.914595934540829e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3.914595934540829e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.914595934540829e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.914595934540829e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.914595934540829e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344357</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344357</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,28 +26808,28 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443787</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095188</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.709617553464</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660727</v>
+        <v>78.07030221924589</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551312</v>
+        <v>17.58004954287449</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346414</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.914595934540829e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344357</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485936</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773699</v>
+        <v>659.3622249971647</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407459</v>
+        <v>117.1268713042793</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344357</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485936</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,16 +27379,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>240.0416608240447</v>
+        <v>343.0507940605937</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27470,10 +27470,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>97.76330015091642</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27518,10 +27518,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>94.41567260241311</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27546,13 +27546,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27591,19 +27591,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>219.791800083448</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>263.0482333510754</v>
+        <v>252.2568067739464</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>185.1777423863215</v>
+        <v>34.04445167369704</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>97.34167479591176</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>39.10824406627611</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27856,22 +27856,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>304.0304355871567</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>209.5866825387948</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27916,7 +27916,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.83064772952768</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>68.3126778065913</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28755,16 +28755,16 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28998,13 +28998,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
+        <v>5.636002634528936</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>130.3599693155842</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082806</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>93.9912744743164</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901351</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431675</v>
       </c>
       <c r="N28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.9912744743164</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.9912744743164</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.9912744743164</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.27223765901115</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>48.65992738832438</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>43.4950968315998</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000712</v>
+        <v>106.8683420224736</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>18.71446861253483</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,37 +30141,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>28.01250026485403</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155843</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -30417,37 +30417,37 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155842</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082802</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="42">
@@ -30615,40 +30615,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
-        <v>5.636002634530556</v>
+        <v>28.01250026485309</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="44">
@@ -30876,7 +30876,7 @@
         <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668959</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30888,19 +30888,19 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>130.3599693155843</v>
       </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155843</v>
@@ -32707,28 +32707,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.335664067132602e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>2.001814201440595e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>2.483427529407244e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>2.763291631722381e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>2.808004579256107e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.651519098556246e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.263010205555334e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.699426418999582e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -32789,25 +32789,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1.359657344547073e-13</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1.828227091881545e-13</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>2.133454784324752e-13</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>2.189920984172987e-13</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>2.003349864726758e-13</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.607864884887157e-13</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.074815095083739e-13</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -32944,28 +32944,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.335664067132602e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2.001814201440595e-13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>2.483427529407244e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>2.763291631722381e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>2.808004579256107e-13</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>2.651519098556246e-13</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2.263010205555334e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.699426418999582e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -33026,25 +33026,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1.359657344547073e-13</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1.828227091881545e-13</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>2.133454784324752e-13</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>2.189920984172987e-13</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>2.003349864726758e-13</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.607864884887157e-13</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.074815095083739e-13</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -33181,28 +33181,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.335664067132602e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>2.001814201440595e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>2.483427529407244e-13</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>2.763291631722381e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>2.808004579256107e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.651519098556246e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2.263010205555334e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.699426418999582e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -33263,25 +33263,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1.359657344547073e-13</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1.828227091881545e-13</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>2.133454784324752e-13</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>2.189920984172987e-13</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>2.003349864726758e-13</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.607864884887157e-13</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.074815095083739e-13</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -33418,28 +33418,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.335664067132602e-13</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>2.001814201440595e-13</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>2.483427529407244e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>2.763291631722381e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>2.808004579256107e-13</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>2.651519098556246e-13</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.263010205555334e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.699426418999582e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -33500,25 +33500,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>1.359657344547073e-13</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1.828227091881545e-13</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>2.133454784324752e-13</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2.189920984172987e-13</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>2.003349864726758e-13</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.607864884887157e-13</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.074815095083739e-13</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -33655,28 +33655,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.335664067132602e-13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>2.001814201440595e-13</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>2.483427529407244e-13</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>2.763291631722381e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>2.808004579256107e-13</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>2.651519098556246e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.263010205555334e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.699426418999582e-13</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -33737,25 +33737,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1.359657344547073e-13</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1.828227091881545e-13</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>2.133454784324752e-13</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>2.189920984172987e-13</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>2.003349864726758e-13</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.607864884887157e-13</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.074815095083739e-13</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -33892,28 +33892,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.335664067132602e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>2.001814201440595e-13</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>2.483427529407244e-13</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>2.763291631722381e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>2.808004579256107e-13</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>2.651519098556246e-13</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>2.263010205555334e-13</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.699426418999582e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -33974,25 +33974,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1.359657344547073e-13</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1.828227091881545e-13</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>2.133454784324752e-13</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>2.189920984172987e-13</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>2.003349864726758e-13</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.607864884887157e-13</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.074815095083739e-13</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -34129,28 +34129,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.335664067132602e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>2.001814201440595e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>2.483427529407244e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>2.763291631722381e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>2.808004579256107e-13</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>2.651519098556246e-13</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>2.263010205555334e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.699426418999582e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -34211,25 +34211,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1.359657344547073e-13</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1.828227091881545e-13</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>2.133454784324752e-13</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>2.189920984172987e-13</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>2.003349864726758e-13</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.607864884887157e-13</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.074815095083739e-13</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -34366,28 +34366,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.335664067132602e-13</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>2.001814201440595e-13</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>2.483427529407244e-13</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>2.763291631722381e-13</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>2.808004579256107e-13</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>2.651519098556246e-13</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>2.263010205555334e-13</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.699426418999582e-13</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -34448,25 +34448,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>1.359657344547073e-13</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>1.828227091881545e-13</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>2.133454784324752e-13</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>2.189920984172987e-13</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>2.003349864726758e-13</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.607864884887157e-13</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.074815095083739e-13</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>322.7942147205891</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>168.1656617761402</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34784,16 +34784,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344357</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344357</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>17.27213818926751</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>373.0011178946847</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34936,16 +34936,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>128.0517622267043</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>406.3979660376453</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35021,16 +35021,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344357</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>36.99176856701163</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>373.0011178946847</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>98.29687095180005</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>327.4053600554008</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>330.4341341043865</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>216.1765763066824</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N12" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257283</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488438</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>539.4516590774601</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,16 +36051,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36294,13 +36294,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535426</v>
+        <v>126.7230387724871</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.1108817260891</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317799</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.3033249682112</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457866</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062894</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.4505918164782</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576756</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828094</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589875</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120107</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.400003690543</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634531851</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>176.3831193851013</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907934</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.3033249682112</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510917</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192277</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201029</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809044</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853757</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698312</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062894</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.4505918164782</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576757</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828094</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589875</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120107</v>
+        <v>113.7820836676939</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
-        <v>282.1645859271084</v>
+        <v>282.1645859271087</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446888</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060963</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425276</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.5073351254081</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192277</v>
+        <v>563.4149484039233</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457866</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065879</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.9849246700705</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698312</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>113.7820836676927</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006883</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217771</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828094</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589875</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37002,13 +37002,13 @@
         <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446888</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.1108817260891</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317799</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.3033249682112</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511629</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449825</v>
+        <v>645.922630517621</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458577</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>400.3644648949123</v>
+        <v>464.4844572792976</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110593</v>
+        <v>230.2077838426589</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062894</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.4505918164782</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576754</v>
+        <v>372.2447499518085</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828094</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589875</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120107</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791214</v>
+        <v>76.79385455031453</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868812</v>
+        <v>195.4415774595199</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528631</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.37649167503</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371501</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>139.801504750493</v>
+        <v>233.8669559106681</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.1108817260891</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317799</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.3033249682112</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457866</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062894</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.4505918164782</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576756</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828094</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589875</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120107</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434252</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>110.674157951664</v>
+        <v>88.29766032133915</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835494</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>146.1108817260891</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317799</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.3033249682112</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457866</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062894</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.4505918164782</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006883</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>23.49322931597473</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828094</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120107</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37713,16 +37713,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257367</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634531391</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.1108817260891</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>362.6084404317799</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.3033249682112</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457866</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>35.05004611020225</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L42" t="n">
-        <v>488.4505918164782</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006883</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217771</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828094</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
-        <v>88.29766032134053</v>
+        <v>110.6741579516631</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683762</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>146.1108817260891</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>362.6084404317799</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.3033249682112</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457866</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062894</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>488.4505918164782</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006883</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>135.5123342397967</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589875</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120107</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634530523</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38184,7 +38184,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
